--- a/data/baiana/Indicadores de mortalidade por DCNT - TME diabete melito por Ano segundo Regiao de Saude 2011 a 2021.xlsx
+++ b/data/baiana/Indicadores de mortalidade por DCNT - TME diabete melito por Ano segundo Regiao de Saude 2011 a 2021.xlsx
@@ -1,99 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffe\Downloads\Dados\geral\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffe\Desktop\git\cienciaDeDados\data\baiana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F1A621C-A066-47C6-B2F8-65F1A96D4BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886119C5-8209-4B82-85EB-CF5210B90FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicadores de mortalidade por " sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v2.36" hidden="1">'Indicadores de mortalidade por '!$A$2:$A$11</definedName>
-    <definedName name="_xlchart.v2.37" hidden="1">'Indicadores de mortalidade por '!$B$1</definedName>
-    <definedName name="_xlchart.v2.38" hidden="1">'Indicadores de mortalidade por '!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v2.39" hidden="1">'Indicadores de mortalidade por '!$C$1</definedName>
-    <definedName name="_xlchart.v2.40" hidden="1">'Indicadores de mortalidade por '!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v2.41" hidden="1">'Indicadores de mortalidade por '!$D$1</definedName>
-    <definedName name="_xlchart.v2.42" hidden="1">'Indicadores de mortalidade por '!$D$2:$D$11</definedName>
-    <definedName name="_xlchart.v2.43" hidden="1">'Indicadores de mortalidade por '!$E$1</definedName>
-    <definedName name="_xlchart.v2.44" hidden="1">'Indicadores de mortalidade por '!$E$2:$E$11</definedName>
-    <definedName name="_xlchart.v2.45" hidden="1">'Indicadores de mortalidade por '!$F$1</definedName>
-    <definedName name="_xlchart.v2.46" hidden="1">'Indicadores de mortalidade por '!$F$2:$F$11</definedName>
-    <definedName name="_xlchart.v2.47" hidden="1">'Indicadores de mortalidade por '!$G$1</definedName>
-    <definedName name="_xlchart.v2.48" hidden="1">'Indicadores de mortalidade por '!$G$2:$G$11</definedName>
-    <definedName name="_xlchart.v2.49" hidden="1">'Indicadores de mortalidade por '!$H$1</definedName>
-    <definedName name="_xlchart.v2.50" hidden="1">'Indicadores de mortalidade por '!$H$2:$H$11</definedName>
-    <definedName name="_xlchart.v2.51" hidden="1">'Indicadores de mortalidade por '!$I$1</definedName>
-    <definedName name="_xlchart.v2.52" hidden="1">'Indicadores de mortalidade por '!$I$2:$I$11</definedName>
-    <definedName name="_xlchart.v2.53" hidden="1">'Indicadores de mortalidade por '!$J$1</definedName>
-    <definedName name="_xlchart.v2.54" hidden="1">'Indicadores de mortalidade por '!$J$2:$J$11</definedName>
-    <definedName name="_xlchart.v2.55" hidden="1">'Indicadores de mortalidade por '!$K$1</definedName>
-    <definedName name="_xlchart.v2.56" hidden="1">'Indicadores de mortalidade por '!$K$2:$K$11</definedName>
-    <definedName name="_xlchart.v2.57" hidden="1">'Indicadores de mortalidade por '!$L$1</definedName>
-    <definedName name="_xlchart.v2.58" hidden="1">'Indicadores de mortalidade por '!$L$2:$L$11</definedName>
-    <definedName name="_xlchart.v5.0" hidden="1">'Indicadores de mortalidade por '!$A$1:$A$10</definedName>
-    <definedName name="_xlchart.v5.1" hidden="1">'Indicadores de mortalidade por '!$B$1:$B$10</definedName>
-    <definedName name="_xlchart.v5.10" hidden="1">'Indicadores de mortalidade por '!$K$1:$K$10</definedName>
-    <definedName name="_xlchart.v5.11" hidden="1">'Indicadores de mortalidade por '!$L$1:$L$10</definedName>
-    <definedName name="_xlchart.v5.12" hidden="1">'Indicadores de mortalidade por '!$A$1:$A$10</definedName>
-    <definedName name="_xlchart.v5.13" hidden="1">'Indicadores de mortalidade por '!$B$1:$B$10</definedName>
-    <definedName name="_xlchart.v5.14" hidden="1">'Indicadores de mortalidade por '!$C$1:$C$10</definedName>
-    <definedName name="_xlchart.v5.15" hidden="1">'Indicadores de mortalidade por '!$D$1:$D$10</definedName>
-    <definedName name="_xlchart.v5.16" hidden="1">'Indicadores de mortalidade por '!$E$1:$E$10</definedName>
-    <definedName name="_xlchart.v5.17" hidden="1">'Indicadores de mortalidade por '!$F$1:$F$10</definedName>
-    <definedName name="_xlchart.v5.18" hidden="1">'Indicadores de mortalidade por '!$G$1:$G$10</definedName>
-    <definedName name="_xlchart.v5.19" hidden="1">'Indicadores de mortalidade por '!$H$1:$H$10</definedName>
-    <definedName name="_xlchart.v5.2" hidden="1">'Indicadores de mortalidade por '!$C$1:$C$10</definedName>
-    <definedName name="_xlchart.v5.20" hidden="1">'Indicadores de mortalidade por '!$I$1:$I$10</definedName>
-    <definedName name="_xlchart.v5.21" hidden="1">'Indicadores de mortalidade por '!$J$1:$J$10</definedName>
-    <definedName name="_xlchart.v5.22" hidden="1">'Indicadores de mortalidade por '!$K$1:$K$10</definedName>
-    <definedName name="_xlchart.v5.23" hidden="1">'Indicadores de mortalidade por '!$L$1:$L$10</definedName>
-    <definedName name="_xlchart.v5.24" hidden="1">'Indicadores de mortalidade por '!$A$1:$A$10</definedName>
-    <definedName name="_xlchart.v5.25" hidden="1">'Indicadores de mortalidade por '!$B$1:$B$10</definedName>
-    <definedName name="_xlchart.v5.26" hidden="1">'Indicadores de mortalidade por '!$C$1:$C$10</definedName>
-    <definedName name="_xlchart.v5.27" hidden="1">'Indicadores de mortalidade por '!$D$1:$D$10</definedName>
-    <definedName name="_xlchart.v5.28" hidden="1">'Indicadores de mortalidade por '!$E$1:$E$10</definedName>
-    <definedName name="_xlchart.v5.29" hidden="1">'Indicadores de mortalidade por '!$F$1:$F$10</definedName>
-    <definedName name="_xlchart.v5.3" hidden="1">'Indicadores de mortalidade por '!$D$1:$D$10</definedName>
-    <definedName name="_xlchart.v5.30" hidden="1">'Indicadores de mortalidade por '!$G$1:$G$10</definedName>
-    <definedName name="_xlchart.v5.31" hidden="1">'Indicadores de mortalidade por '!$H$1:$H$10</definedName>
-    <definedName name="_xlchart.v5.32" hidden="1">'Indicadores de mortalidade por '!$I$1:$I$10</definedName>
-    <definedName name="_xlchart.v5.33" hidden="1">'Indicadores de mortalidade por '!$J$1:$J$10</definedName>
-    <definedName name="_xlchart.v5.34" hidden="1">'Indicadores de mortalidade por '!$K$1:$K$10</definedName>
-    <definedName name="_xlchart.v5.35" hidden="1">'Indicadores de mortalidade por '!$L$1:$L$10</definedName>
-    <definedName name="_xlchart.v5.4" hidden="1">'Indicadores de mortalidade por '!$E$1:$E$10</definedName>
-    <definedName name="_xlchart.v5.5" hidden="1">'Indicadores de mortalidade por '!$F$1:$F$10</definedName>
-    <definedName name="_xlchart.v5.59" hidden="1">'Indicadores de mortalidade por '!$A$1:$A$10</definedName>
-    <definedName name="_xlchart.v5.6" hidden="1">'Indicadores de mortalidade por '!$G$1:$G$10</definedName>
-    <definedName name="_xlchart.v5.60" hidden="1">'Indicadores de mortalidade por '!$B$1:$B$10</definedName>
-    <definedName name="_xlchart.v5.61" hidden="1">'Indicadores de mortalidade por '!$C$1:$C$10</definedName>
-    <definedName name="_xlchart.v5.62" hidden="1">'Indicadores de mortalidade por '!$D$1:$D$10</definedName>
-    <definedName name="_xlchart.v5.63" hidden="1">'Indicadores de mortalidade por '!$E$1:$E$10</definedName>
-    <definedName name="_xlchart.v5.64" hidden="1">'Indicadores de mortalidade por '!$F$1:$F$10</definedName>
-    <definedName name="_xlchart.v5.65" hidden="1">'Indicadores de mortalidade por '!$G$1:$G$10</definedName>
-    <definedName name="_xlchart.v5.66" hidden="1">'Indicadores de mortalidade por '!$H$1:$H$10</definedName>
-    <definedName name="_xlchart.v5.67" hidden="1">'Indicadores de mortalidade por '!$I$1:$I$10</definedName>
-    <definedName name="_xlchart.v5.68" hidden="1">'Indicadores de mortalidade por '!$J$1:$J$10</definedName>
-    <definedName name="_xlchart.v5.69" hidden="1">'Indicadores de mortalidade por '!$K$1:$K$10</definedName>
-    <definedName name="_xlchart.v5.7" hidden="1">'Indicadores de mortalidade por '!$H$1:$H$10</definedName>
-    <definedName name="_xlchart.v5.70" hidden="1">'Indicadores de mortalidade por '!$L$1:$L$10</definedName>
-    <definedName name="_xlchart.v5.8" hidden="1">'Indicadores de mortalidade por '!$I$1:$I$10</definedName>
-    <definedName name="_xlchart.v5.9" hidden="1">'Indicadores de mortalidade por '!$J$1:$J$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Planilha1!$A$1:$P$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
   <si>
     <t>Total</t>
   </si>
@@ -127,11 +70,20 @@
   <si>
     <t>Serrana</t>
   </si>
+  <si>
+    <t>2011 - 2015</t>
+  </si>
+  <si>
+    <t>2016-2021</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -609,8 +561,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -667,6 +620,2873 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2011</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Norte </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Baia da Ilha Grande</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Baixada Litoranea</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Medio Paraiba </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Noroeste</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Metropolitana II </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Total</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Metropolitana I  </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Serrana</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Centro-Sul </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$B$2:$B$11</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AB15-4A10-8BB7-4518117408A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2012</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Norte </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Baia da Ilha Grande</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Baixada Litoranea</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Medio Paraiba </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Noroeste</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Metropolitana II </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Total</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Metropolitana I  </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Serrana</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Centro-Sul </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$C$2:$C$11</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AB15-4A10-8BB7-4518117408A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2013</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Norte </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Baia da Ilha Grande</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Baixada Litoranea</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Medio Paraiba </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Noroeste</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Metropolitana II </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Total</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Metropolitana I  </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Serrana</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Centro-Sul </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$D$2:$D$11</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AB15-4A10-8BB7-4518117408A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Norte </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Baia da Ilha Grande</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Baixada Litoranea</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Medio Paraiba </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Noroeste</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Metropolitana II </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Total</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Metropolitana I  </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Serrana</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Centro-Sul </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$E$2:$E$11</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AB15-4A10-8BB7-4518117408A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Norte </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Baia da Ilha Grande</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Baixada Litoranea</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Medio Paraiba </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Noroeste</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Metropolitana II </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Total</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Metropolitana I  </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Serrana</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Centro-Sul </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$F$2:$F$11</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-AB15-4A10-8BB7-4518117408A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2011 - 2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="72000" tIns="0" rIns="72000" bIns="36000" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Norte </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Baia da Ilha Grande</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Baixada Litoranea</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Medio Paraiba </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Noroeste</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Metropolitana II </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Total</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Metropolitana I  </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Serrana</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Centro-Sul </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>32.380000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.779999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.160000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39.160000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39.480000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>54.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-AB15-4A10-8BB7-4518117408A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Norte </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Baia da Ilha Grande</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Baixada Litoranea</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Medio Paraiba </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Noroeste</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Metropolitana II </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Total</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Metropolitana I  </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Serrana</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Centro-Sul </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$H$2:$H$11</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-AB15-4A10-8BB7-4518117408A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Norte </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Baia da Ilha Grande</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Baixada Litoranea</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Medio Paraiba </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Noroeste</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Metropolitana II </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Total</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Metropolitana I  </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Serrana</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Centro-Sul </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$I$2:$I$11</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-AB15-4A10-8BB7-4518117408A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Norte </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Baia da Ilha Grande</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Baixada Litoranea</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Medio Paraiba </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Noroeste</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Metropolitana II </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Total</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Metropolitana I  </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Serrana</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Centro-Sul </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$J$2:$J$11</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-AB15-4A10-8BB7-4518117408A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Norte </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Baia da Ilha Grande</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Baixada Litoranea</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Medio Paraiba </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Noroeste</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Metropolitana II </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Total</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Metropolitana I  </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Serrana</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Centro-Sul </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$K$2:$K$11</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-AB15-4A10-8BB7-4518117408A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Norte </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Baia da Ilha Grande</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Baixada Litoranea</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Medio Paraiba </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Noroeste</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Metropolitana II </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Total</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Metropolitana I  </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Serrana</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Centro-Sul </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$L$2:$L$11</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-AB15-4A10-8BB7-4518117408A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Norte </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Baia da Ilha Grande</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Baixada Litoranea</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Medio Paraiba </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Noroeste</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Metropolitana II </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Total</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Metropolitana I  </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Serrana</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Centro-Sul </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$M$2:$M$11</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-AB15-4A10-8BB7-4518117408A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Norte </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Baia da Ilha Grande</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Baixada Litoranea</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Medio Paraiba </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Noroeste</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Metropolitana II </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Total</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Metropolitana I  </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Serrana</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Centro-Sul </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$N$2:$N$11</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-AB15-4A10-8BB7-4518117408A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Norte </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Baia da Ilha Grande</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Baixada Litoranea</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Medio Paraiba </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Noroeste</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Metropolitana II </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Total</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Metropolitana I  </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Serrana</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Centro-Sul </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$O$2:$O$11</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-AB15-4A10-8BB7-4518117408A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2016-2021</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Norte </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Baia da Ilha Grande</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Baixada Litoranea</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Medio Paraiba </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Noroeste</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Metropolitana II </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Total</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Metropolitana I  </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Serrana</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Centro-Sul </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$P$2:$P$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>35.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.849999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38.199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.783333333333339</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37.93333333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40.18333333333333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.43333333333333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48.716666666666669</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47.633333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-AB15-4A10-8BB7-4518117408A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="444"/>
+        <c:axId val="1049707488"/>
+        <c:axId val="1049707904"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1049707488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1049707904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1049707904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1049707488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28F7CA6C-1F10-4767-A011-69495C5151BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -965,14 +3785,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -1396,4 +4218,542 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B2B586-EC9E-4942-933A-7A5E5281D233}">
+  <dimension ref="A1:P11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="0.85546875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="0.7109375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="0.42578125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="0.85546875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="5" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="15" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2011</v>
+      </c>
+      <c r="C1">
+        <v>2012</v>
+      </c>
+      <c r="D1">
+        <v>2013</v>
+      </c>
+      <c r="E1">
+        <v>2014</v>
+      </c>
+      <c r="F1">
+        <v>2015</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1">
+        <v>2016</v>
+      </c>
+      <c r="J1">
+        <v>2017</v>
+      </c>
+      <c r="K1">
+        <v>2018</v>
+      </c>
+      <c r="L1">
+        <v>2019</v>
+      </c>
+      <c r="M1">
+        <v>2020</v>
+      </c>
+      <c r="N1">
+        <v>2021</v>
+      </c>
+      <c r="P1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>31.7</v>
+      </c>
+      <c r="C2">
+        <v>31</v>
+      </c>
+      <c r="D2">
+        <v>32</v>
+      </c>
+      <c r="E2">
+        <v>33.1</v>
+      </c>
+      <c r="F2">
+        <v>34.1</v>
+      </c>
+      <c r="G2">
+        <f>AVERAGE(B2:F2)</f>
+        <v>32.380000000000003</v>
+      </c>
+      <c r="I2">
+        <v>31.1</v>
+      </c>
+      <c r="J2">
+        <v>34.4</v>
+      </c>
+      <c r="K2">
+        <v>33.5</v>
+      </c>
+      <c r="L2">
+        <v>35.1</v>
+      </c>
+      <c r="M2">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="N2">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="P2" s="1">
+        <f>AVERAGE(I2:N2)</f>
+        <v>35.35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="C3">
+        <v>36.1</v>
+      </c>
+      <c r="D3">
+        <v>33.9</v>
+      </c>
+      <c r="E3">
+        <v>35.6</v>
+      </c>
+      <c r="F3">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="G3">
+        <f>AVERAGE(B3:F3)</f>
+        <v>34.299999999999997</v>
+      </c>
+      <c r="I3">
+        <v>30.7</v>
+      </c>
+      <c r="J3">
+        <v>31.2</v>
+      </c>
+      <c r="K3">
+        <v>29.3</v>
+      </c>
+      <c r="L3">
+        <v>26.1</v>
+      </c>
+      <c r="M3">
+        <v>27.7</v>
+      </c>
+      <c r="N3">
+        <v>34.1</v>
+      </c>
+      <c r="P3" s="1">
+        <f>AVERAGE(I3:N3)</f>
+        <v>29.849999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>34.4</v>
+      </c>
+      <c r="C4">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="D4">
+        <v>37.5</v>
+      </c>
+      <c r="E4">
+        <v>31.4</v>
+      </c>
+      <c r="F4">
+        <v>34.6</v>
+      </c>
+      <c r="G4">
+        <f>AVERAGE(B4:F4)</f>
+        <v>35.04</v>
+      </c>
+      <c r="I4">
+        <v>38.9</v>
+      </c>
+      <c r="J4">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="K4">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="L4">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="M4">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="N4">
+        <v>42.2</v>
+      </c>
+      <c r="P4" s="1">
+        <f>AVERAGE(I4:N4)</f>
+        <v>38.199999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>38.1</v>
+      </c>
+      <c r="C5">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="D5">
+        <v>39.9</v>
+      </c>
+      <c r="E5">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="F5">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="G5">
+        <f>AVERAGE(B5:F5)</f>
+        <v>36.64</v>
+      </c>
+      <c r="I5">
+        <v>36</v>
+      </c>
+      <c r="J5">
+        <v>38.1</v>
+      </c>
+      <c r="K5">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="L5">
+        <v>36.6</v>
+      </c>
+      <c r="M5">
+        <v>41.4</v>
+      </c>
+      <c r="N5">
+        <v>37.4</v>
+      </c>
+      <c r="P5" s="1">
+        <f>AVERAGE(I5:N5)</f>
+        <v>37.783333333333339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>44.7</v>
+      </c>
+      <c r="C6">
+        <v>33.9</v>
+      </c>
+      <c r="D6">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="E6">
+        <v>36</v>
+      </c>
+      <c r="F6">
+        <v>40.5</v>
+      </c>
+      <c r="G6">
+        <f>AVERAGE(B6:F6)</f>
+        <v>37.779999999999994</v>
+      </c>
+      <c r="I6">
+        <v>46.5</v>
+      </c>
+      <c r="J6">
+        <v>47.5</v>
+      </c>
+      <c r="K6">
+        <v>48.1</v>
+      </c>
+      <c r="L6">
+        <v>46</v>
+      </c>
+      <c r="M6">
+        <v>47.5</v>
+      </c>
+      <c r="N6">
+        <v>51.5</v>
+      </c>
+      <c r="P6" s="1">
+        <f>AVERAGE(I6:N6)</f>
+        <v>47.85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="C7">
+        <v>39.6</v>
+      </c>
+      <c r="D7">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="E7">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="F7">
+        <v>35</v>
+      </c>
+      <c r="G7">
+        <f>AVERAGE(B7:F7)</f>
+        <v>39.160000000000004</v>
+      </c>
+      <c r="I7">
+        <v>36.1</v>
+      </c>
+      <c r="J7">
+        <v>35.1</v>
+      </c>
+      <c r="K7">
+        <v>38.4</v>
+      </c>
+      <c r="L7">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="M7">
+        <v>40.9</v>
+      </c>
+      <c r="N7">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="P7" s="1">
+        <f>AVERAGE(I7:N7)</f>
+        <v>37.93333333333333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>42.8</v>
+      </c>
+      <c r="C8">
+        <v>39.9</v>
+      </c>
+      <c r="D8">
+        <v>39.5</v>
+      </c>
+      <c r="E8">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="F8">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="G8">
+        <f>AVERAGE(B8:F8)</f>
+        <v>39.160000000000004</v>
+      </c>
+      <c r="I8">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="J8">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="K8">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="L8">
+        <v>39.9</v>
+      </c>
+      <c r="M8">
+        <v>43.1</v>
+      </c>
+      <c r="N8">
+        <v>41.4</v>
+      </c>
+      <c r="P8" s="1">
+        <f>AVERAGE(I8:N8)</f>
+        <v>40.18333333333333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>44.4</v>
+      </c>
+      <c r="C9">
+        <v>40.5</v>
+      </c>
+      <c r="D9">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="E9">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="F9">
+        <v>36.1</v>
+      </c>
+      <c r="G9">
+        <f>AVERAGE(B9:F9)</f>
+        <v>39.480000000000004</v>
+      </c>
+      <c r="I9">
+        <v>38.4</v>
+      </c>
+      <c r="J9">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="K9">
+        <v>40.5</v>
+      </c>
+      <c r="L9">
+        <v>41.4</v>
+      </c>
+      <c r="M9">
+        <v>43.8</v>
+      </c>
+      <c r="N9">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="P9" s="1">
+        <f>AVERAGE(I9:N9)</f>
+        <v>40.43333333333333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>46.4</v>
+      </c>
+      <c r="C10">
+        <v>43.7</v>
+      </c>
+      <c r="D10">
+        <v>42.6</v>
+      </c>
+      <c r="E10">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="F10">
+        <v>40</v>
+      </c>
+      <c r="G10">
+        <f>AVERAGE(B10:F10)</f>
+        <v>42.7</v>
+      </c>
+      <c r="I10">
+        <v>44.5</v>
+      </c>
+      <c r="J10">
+        <v>50.3</v>
+      </c>
+      <c r="K10">
+        <v>51.7</v>
+      </c>
+      <c r="L10">
+        <v>43</v>
+      </c>
+      <c r="M10">
+        <v>51.7</v>
+      </c>
+      <c r="N10">
+        <v>51.1</v>
+      </c>
+      <c r="P10" s="1">
+        <f>AVERAGE(I10:N10)</f>
+        <v>48.716666666666669</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>57.5</v>
+      </c>
+      <c r="C11">
+        <v>51.4</v>
+      </c>
+      <c r="D11">
+        <v>60.8</v>
+      </c>
+      <c r="E11">
+        <v>52.1</v>
+      </c>
+      <c r="F11">
+        <v>49.7</v>
+      </c>
+      <c r="G11">
+        <f>AVERAGE(B11:F11)</f>
+        <v>54.3</v>
+      </c>
+      <c r="I11">
+        <v>49.5</v>
+      </c>
+      <c r="J11">
+        <v>43.9</v>
+      </c>
+      <c r="K11">
+        <v>44.8</v>
+      </c>
+      <c r="L11">
+        <v>45.8</v>
+      </c>
+      <c r="M11">
+        <v>54.7</v>
+      </c>
+      <c r="N11">
+        <v>47.1</v>
+      </c>
+      <c r="P11" s="1">
+        <f>AVERAGE(I11:N11)</f>
+        <v>47.633333333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:P1" xr:uid="{99B2B586-EC9E-4942-933A-7A5E5281D233}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P11">
+      <sortCondition ref="G1"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
+    <sortCondition ref="A1:A11"/>
+  </sortState>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>